--- a/lotto_keywords.xlsx
+++ b/lotto_keywords.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cs\Desktop\Desktop (2)\챗봇 api 비호환 버전\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\챗봇 api 비호환 버전\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78D5C1CE-0EF7-45D2-9868-6A9442BCB142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{A473E5B1-A47A-43F3-A6A2-B744C9B6233B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>확률</t>
   </si>
@@ -69,12 +68,6 @@
     <t>연금복권</t>
   </si>
   <si>
-    <t>최대 당첨금</t>
-  </si>
-  <si>
-    <t>복권 종류</t>
-  </si>
-  <si>
     <t>소수</t>
   </si>
   <si>
@@ -90,9 +83,6 @@
     <t>끝수</t>
   </si>
   <si>
-    <t>3배수</t>
-  </si>
-  <si>
     <t>합성수</t>
   </si>
   <si>
@@ -168,9 +158,6 @@
     <t>매월 500만 원씩 20년 동안 받는 복권입니다.</t>
   </si>
   <si>
-    <t>역대 최대 당첨금은 407억 원입니다.</t>
-  </si>
-  <si>
     <t>로또, 연금복권, 스피또 등 다양한 복권이 있습니다.</t>
   </si>
   <si>
@@ -187,9 +174,6 @@
   </si>
   <si>
     <t>당첨 번호의 끝자리를 분석하는 방법입니다.</t>
-  </si>
-  <si>
-    <t>3, 6, 9 등 3의 배수 번호를 의미합니다.</t>
   </si>
   <si>
     <t>소수나 3배수가 아닌 수를 합성수라 합니다.</t>
@@ -230,13 +214,17 @@
   </si>
   <si>
     <t>답변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복권</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -599,12 +587,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C474B64F-FFDA-4BFC-8071-E5717FA742FF}">
-  <dimension ref="A1:B34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -615,10 +603,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -626,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -634,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -642,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -650,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -658,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -666,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -674,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -682,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -690,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -698,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -706,7 +694,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -714,7 +702,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -722,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -730,163 +718,148 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/lotto_keywords.xlsx
+++ b/lotto_keywords.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>확률</t>
   </si>
@@ -95,9 +95,6 @@
     <t>합의개념</t>
   </si>
   <si>
-    <t>10단위</t>
-  </si>
-  <si>
     <t>구간</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
   </si>
   <si>
     <t>당첨 번호를 합산하여 분석하는 방법입니다.</t>
-  </si>
-  <si>
-    <t>10단위 구간별 번호 분포를 분석합니다.</t>
   </si>
   <si>
     <t>1~15, 16~30, 31~45로 나눈 분석 방법입니다.</t>
@@ -588,11 +582,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -603,10 +597,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -614,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -622,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -630,7 +624,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -638,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -646,7 +640,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -654,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -662,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -670,7 +664,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -678,7 +672,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -686,7 +680,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -694,7 +688,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -702,7 +696,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -710,7 +704,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -718,15 +712,15 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -734,7 +728,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -742,7 +736,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -750,7 +744,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -758,7 +752,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -766,7 +760,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -774,7 +768,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -782,7 +776,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -790,7 +784,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -798,7 +792,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -806,7 +800,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -814,7 +808,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -822,7 +816,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -830,7 +824,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -838,7 +832,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -846,15 +840,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/lotto_keywords.xlsx
+++ b/lotto_keywords.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>확률</t>
   </si>
@@ -68,9 +68,6 @@
     <t>연금복권</t>
   </si>
   <si>
-    <t>소수</t>
-  </si>
-  <si>
     <t>홀짝</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>끝수</t>
   </si>
   <si>
-    <t>합성수</t>
-  </si>
-  <si>
     <t>동형수</t>
   </si>
   <si>
@@ -158,9 +152,6 @@
     <t>로또, 연금복권, 스피또 등 다양한 복권이 있습니다.</t>
   </si>
   <si>
-    <t>소수 번호는 2, 3, 5, 7, 11, 13, 17, 19 등이 있습니다.</t>
-  </si>
-  <si>
     <t>홀수/짝수 비율을 고려하는 분석 방법입니다.</t>
   </si>
   <si>
@@ -171,9 +162,6 @@
   </si>
   <si>
     <t>당첨 번호의 끝자리를 분석하는 방법입니다.</t>
-  </si>
-  <si>
-    <t>소수나 3배수가 아닌 수를 합성수라 합니다.</t>
   </si>
   <si>
     <t>숫자의 모양이 비슷한 번호 조합을 말합니다.</t>
@@ -582,11 +570,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD26"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -597,10 +585,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -608,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -616,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -624,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -632,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -640,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -648,7 +636,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -656,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -664,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -672,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -680,7 +668,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -688,7 +676,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -696,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -704,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -712,15 +700,15 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -728,7 +716,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -736,7 +724,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -744,7 +732,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -752,7 +740,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -760,7 +748,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -768,7 +756,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -776,7 +764,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -784,7 +772,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -792,7 +780,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -800,7 +788,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -808,7 +796,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -816,7 +804,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -824,23 +812,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/lotto_keywords.xlsx
+++ b/lotto_keywords.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\챗봇 api 비호환 버전\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>확률</t>
   </si>
@@ -68,6 +68,15 @@
     <t>연금복권</t>
   </si>
   <si>
+    <t>최대 당첨금</t>
+  </si>
+  <si>
+    <t>복권 종류</t>
+  </si>
+  <si>
+    <t>소수</t>
+  </si>
+  <si>
     <t>홀짝</t>
   </si>
   <si>
@@ -80,6 +89,9 @@
     <t>끝수</t>
   </si>
   <si>
+    <t>합성수</t>
+  </si>
+  <si>
     <t>동형수</t>
   </si>
   <si>
@@ -89,6 +101,9 @@
     <t>합의개념</t>
   </si>
   <si>
+    <t>10단위</t>
+  </si>
+  <si>
     <t>구간</t>
   </si>
   <si>
@@ -149,9 +164,15 @@
     <t>매월 500만 원씩 20년 동안 받는 복권입니다.</t>
   </si>
   <si>
+    <t>역대 최대 당첨금은 407억 원입니다.</t>
+  </si>
+  <si>
     <t>로또, 연금복권, 스피또 등 다양한 복권이 있습니다.</t>
   </si>
   <si>
+    <t>소수 번호는 2, 3, 5, 7, 11, 13, 17, 19 등이 있습니다.</t>
+  </si>
+  <si>
     <t>홀수/짝수 비율을 고려하는 분석 방법입니다.</t>
   </si>
   <si>
@@ -164,6 +185,9 @@
     <t>당첨 번호의 끝자리를 분석하는 방법입니다.</t>
   </si>
   <si>
+    <t>소수나 3배수가 아닌 수를 합성수라 합니다.</t>
+  </si>
+  <si>
     <t>숫자의 모양이 비슷한 번호 조합을 말합니다.</t>
   </si>
   <si>
@@ -171,6 +195,9 @@
   </si>
   <si>
     <t>당첨 번호를 합산하여 분석하는 방법입니다.</t>
+  </si>
+  <si>
+    <t>10단위 구간별 번호 분포를 분석합니다.</t>
   </si>
   <si>
     <t>1~15, 16~30, 31~45로 나눈 분석 방법입니다.</t>
@@ -199,15 +226,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>복권</t>
+    <t>핫</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 5회에 나온수를 뜨거운수 (혹은 HOT수, 나 핫넘버)라 합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10회 이후에 나온수를 차가운수 (COLD수 , 콜드넘버)라 합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n배수를 의미 합니다 예)3배수3, 6, 9 등 3의 배수 번호를 의미합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합</t>
+  </si>
+  <si>
+    <r>
+      <t>특정 숫자가 과거 추첨에서 등장한 횟수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 의미합니다.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>당첨번호 6개의 숫자를 모두 더한 합계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 말합니다.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +306,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -246,7 +341,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -255,6 +350,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,11 +668,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -585,10 +683,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -596,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -604,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -612,7 +710,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -620,7 +718,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -628,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -636,7 +734,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -644,7 +742,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -652,7 +750,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -660,7 +758,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -668,7 +766,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -676,7 +774,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -684,7 +782,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -692,7 +790,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -700,71 +798,71 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -772,7 +870,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -780,7 +878,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -788,7 +886,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -796,7 +894,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -804,7 +902,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -812,7 +910,79 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/lotto_keywords.xlsx
+++ b/lotto_keywords.xlsx
@@ -226,14 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>핫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콜드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>최근 5회에 나온수를 뜨거운수 (혹은 HOT수, 나 핫넘버)라 합니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -287,6 +279,14 @@
       </rPr>
       <t>를 말합니다.</t>
     </r>
+  </si>
+  <si>
+    <t>핫넘버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜드넘버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -859,10 +859,10 @@
     </row>
     <row r="23" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -955,34 +955,34 @@
     </row>
     <row r="35" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/lotto_keywords.xlsx
+++ b/lotto_keywords.xlsx
@@ -671,8 +671,8 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/lotto_keywords.xlsx
+++ b/lotto_keywords.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>확률</t>
   </si>
@@ -286,6 +286,522 @@
   </si>
   <si>
     <t>콜드넘버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>당첨번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>각각이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>몇회전에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>당첨된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>당첨번호로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나왔는지를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>것입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. (ex: 31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>당첨번호중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나오고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나왔음으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>낙수는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>됩니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이렇게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번호를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하나하나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>역추적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하시면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>됩니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. )</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,7 +809,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +834,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3B2EFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A6A6A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A6A6A"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -341,7 +876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -353,6 +888,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,11 +1209,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -985,6 +1526,14 @@
         <v>73</v>
       </c>
     </row>
+    <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lotto_keywords.xlsx
+++ b/lotto_keywords.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>확률</t>
   </si>
@@ -101,9 +101,6 @@
     <t>합의개념</t>
   </si>
   <si>
-    <t>10단위</t>
-  </si>
-  <si>
     <t>구간</t>
   </si>
   <si>
@@ -113,15 +110,6 @@
     <t>삼각수</t>
   </si>
   <si>
-    <t>7단위</t>
-  </si>
-  <si>
-    <t>5분법</t>
-  </si>
-  <si>
-    <t>9분법</t>
-  </si>
-  <si>
     <t>로또 1등 당첨 확률은 1/8,145,060입니다.</t>
   </si>
   <si>
@@ -197,9 +185,6 @@
     <t>당첨 번호를 합산하여 분석하는 방법입니다.</t>
   </si>
   <si>
-    <t>10단위 구간별 번호 분포를 분석합니다.</t>
-  </si>
-  <si>
     <t>1~15, 16~30, 31~45로 나눈 분석 방법입니다.</t>
   </si>
   <si>
@@ -207,15 +192,6 @@
   </si>
   <si>
     <t>삼각수 이론으로 번호를 분석합니다.</t>
-  </si>
-  <si>
-    <t>1~7, 8~14, ... 43~45로 나누는 방법입니다.</t>
-  </si>
-  <si>
-    <t>1~9, 10~19, 20~29, 30~39, 40~45로 구간 나누기입니다.</t>
-  </si>
-  <si>
-    <t>1~5, 6~10, ... 41~45로 나누는 분석입니다.</t>
   </si>
   <si>
     <t>키워드</t>
@@ -802,6 +778,22 @@
       </rPr>
       <t>. )</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45개의 숫자를 번호대 별로 분류한 것입니다.  예) 10단위 :1~9, 10~19, 20~29, 30~39, 40~45 다섯개의 그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 번호(1~45)를 여러 구간으로 나눕니다. 예) 5분법 : 1~9, 10~19, 20~29, 30~39, 40~45로 구간 나누기입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -886,14 +878,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1209,25 +1201,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.875" customWidth="1"/>
+    <col min="2" max="2" width="52.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" t="s">
-        <v>65</v>
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1235,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1243,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1251,7 +1243,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1259,7 +1251,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1267,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1275,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1283,7 +1275,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -1291,7 +1283,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1299,7 +1291,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1307,7 +1299,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1315,7 +1307,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1323,7 +1315,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1331,7 +1323,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1339,7 +1331,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1347,7 +1339,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1355,7 +1347,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1363,7 +1355,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1371,7 +1363,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1379,7 +1371,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1387,7 +1379,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1395,15 +1387,15 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1411,7 +1403,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1419,7 +1411,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1427,7 +1419,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1435,7 +1427,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1443,7 +1435,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1451,7 +1443,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1459,79 +1451,63 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>66</v>
+      <c r="B34" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="51" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/lotto_keywords.xlsx
+++ b/lotto_keywords.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>확률</t>
   </si>
@@ -794,6 +794,46 @@
   </si>
   <si>
     <t>전체 번호(1~45)를 여러 구간으로 나눕니다. 예) 5분법 : 1~9, 10~19, 20~29, 30~39, 40~45로 구간 나누기입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">로또 분석에서 말하는 **‘궁(宮)’**은 숫자의 자릿수나 패턴을 바탕으로 그룹을 나누어 분석하는 방식입니다. 주로 번호를 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>앞궁 / 중궁 / 뒷궁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>으로 나누고 각 비율이나 조합을 통해 통계적인 경향을 살펴보는 데 사용됩니다.</t>
+    </r>
+  </si>
+  <si>
+    <t>제곱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제곱,제곱수(1, 4, 9, 16, 25, 36) 출현 개수를 분석합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -868,24 +908,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1201,24 +1244,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1226,7 +1269,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1234,7 +1277,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1242,7 +1285,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1250,7 +1293,7 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1258,7 +1301,7 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1266,7 +1309,7 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1274,7 +1317,7 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1282,7 +1325,7 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1290,7 +1333,7 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1298,7 +1341,7 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1306,7 +1349,7 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1314,7 +1357,7 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1322,7 +1365,7 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1330,7 +1373,7 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1338,7 +1381,7 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1346,7 +1389,7 @@
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1354,7 +1397,7 @@
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1362,7 +1405,7 @@
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1370,7 +1413,7 @@
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1378,7 +1421,7 @@
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1386,7 +1429,7 @@
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1394,7 +1437,7 @@
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1402,7 +1445,7 @@
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1410,7 +1453,7 @@
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1418,7 +1461,7 @@
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1426,7 +1469,7 @@
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1434,7 +1477,7 @@
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1442,7 +1485,7 @@
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1450,7 +1493,7 @@
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1458,7 +1501,7 @@
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1466,7 +1509,7 @@
       <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1487,10 +1530,10 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="51" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1498,7 +1541,7 @@
       <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1506,8 +1549,24 @@
       <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/lotto_keywords.xlsx
+++ b/lotto_keywords.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>확률</t>
   </si>
@@ -835,6 +835,13 @@
   <si>
     <t>제곱,제곱수(1, 4, 9, 16, 25, 36) 출현 개수를 분석합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간격,당첨번호 간의 번호 간격을 계산하고 평균을 분석합니다.</t>
   </si>
 </sst>
 </file>
@@ -1244,11 +1251,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1569,6 +1576,14 @@
         <v>76</v>
       </c>
     </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
